--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450618.576848792</v>
+        <v>1424319.970851674</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075099</v>
+        <v>1702443.552109826</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9605299.613516435</v>
+        <v>10852614.83259179</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>186.3676115384771</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>175.4681753671757</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.6328130898288</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>13.80587249615646</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.98569063694849</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>26.64360395382558</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>81.25819606329408</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>16.86719186732084</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.0399185806818</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.74748044681569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112.8566199863821</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228962</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>58.90217727687348</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.91401559658176</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>182.7725485137505</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>283.2471341237259</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>62.74236544294377</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>46.17617249787644</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>179.7188787253435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>227.9017882635711</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>73.66308659887137</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>132.309519156494</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>55.22013099942621</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>66.14085215535448</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961689</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>53.9139073249077</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>112.0477024083348</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>15.75208669539952</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412.2086804271149</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2246.245153341813</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1915.182265998242</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1562.413610728128</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1188.947852467049</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>798.8085204912368</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4488,52 +4488,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2683.203765264529</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2507.0262775787</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2288.391610550762</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2034.629825188854</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.1711973675267</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>412.2086804271149</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="U8" t="n">
-        <v>2615.207670282225</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.144782938654</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W8" t="n">
-        <v>1931.37612766854</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X8" t="n">
-        <v>1557.91036940746</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.771037431648</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>430.0992512117053</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
         <v>348.0202652891861</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1397.061718429189</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037878</v>
+        <v>1397.061718429189</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431127</v>
+        <v>1038.796019822438</v>
       </c>
       <c r="E11" t="n">
-        <v>807.393450832883</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4075460432754</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1783.661558493311</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1666.986340622547</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1865.643082275211</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2415.079091027933</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>325.6879402326647</v>
+        <v>240.672641920795</v>
       </c>
       <c r="C13" t="n">
-        <v>325.6879402326647</v>
+        <v>240.672641920795</v>
       </c>
       <c r="D13" t="n">
-        <v>325.6879402326647</v>
+        <v>240.672641920795</v>
       </c>
       <c r="E13" t="n">
-        <v>325.6879402326647</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="F13" t="n">
-        <v>325.6879402326647</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064346</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064346</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064346</v>
+        <v>240.672641920795</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064346</v>
+        <v>240.672641920795</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.3364050629044</v>
+        <v>240.672641920795</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1981.816309027609</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>1612.853792087197</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>1254.588093480447</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785541</v>
+        <v>868.7998408822023</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889465</v>
+        <v>868.7998408822023</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036447</v>
+        <v>451.7120591186297</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036447</v>
+        <v>133.4889438911392</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533145</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733132</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224082</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280444</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>3132.021239328622</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2758.555481067542</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781332</v>
+        <v>2368.41614909173</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036447</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598709</v>
+        <v>645.9611546560949</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064346</v>
+        <v>392.7152795435728</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064346</v>
+        <v>392.7152795435728</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940988</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117057</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F16" t="n">
-        <v>430.0992512117057</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
-        <v>261.0994509500381</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3510783825683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036447</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064346</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064346</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064346</v>
+        <v>577.334015416048</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064346</v>
+        <v>577.334015416048</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064346</v>
+        <v>577.334015416048</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064346</v>
+        <v>392.7152795435728</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064346</v>
+        <v>392.7152795435728</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1942.924467505048</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1573.961950564637</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.853734278045</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>902.0654816798005</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>491.079576890193</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>73.9917951266205</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3445.898053076176</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3445.898053076176</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3093.129397806062</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.663639544982</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2329.52430756917</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468723</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6204065129901</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.165755980094</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1603.822497632758</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2153.25850638548</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2577.226274866316</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>443.4958817141755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>443.4958817141755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4958817141755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>443.4958817141755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>443.4958817141755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>274.8890367095589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>120.634393609324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1073.926476585963</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1073.926476585963</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>1073.926476585963</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X19" t="n">
-        <v>845.9369256879454</v>
+        <v>381.3857973138602</v>
       </c>
       <c r="Y19" t="n">
-        <v>625.1443465444153</v>
+        <v>160.5932181703301</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.081949825207</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>1646.119432884795</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.853734278045</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>902.0654816798005</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>491.079576890193</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>73.9917951266205</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3518.055535396335</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3165.28688012622</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2791.82112186514</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2401.681789889329</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>164.3994289667179</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>232.0072486300744</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>736.3687884961922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1376.914137963296</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2050.119830216078</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.632142884838</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E22" t="n">
-        <v>2699.655074871683</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>2699.655074871683</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>2699.655074871683</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>2699.655074871683</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331025</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331025</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>3473.96055964339</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>3243.75673311453</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>2989.072244908643</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y22" t="n">
-        <v>2699.655074871683</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2460.436298951862</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2871.326567796375</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3118.091695702838</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.4118289828</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>3755.274456646833</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>4034.81452186553</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601277</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916991</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>616.5439301336032</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123425</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>318.5141971388744</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>171.624249640964</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>171.624249640964</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>171.624249640964</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028583</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X28" t="n">
-        <v>397.7517393246783</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.7517393246783</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4458.413529040523</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>4289.477346112616</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>4139.36070670028</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>3991.447613117887</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3844.557665619977</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3676.382343939797</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3525.964335487741</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014292</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y37" t="n">
-        <v>4640.061993870762</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7183,7 +7183,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2649.889045452862</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2896.654173359326</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>3436.0418410801</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>3765.904468744133</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>4045.44453396283</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281175</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507267</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507267</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507267</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665166</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>319.8509053878468</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>151.6755837076674</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>985.5330309511296</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>696.115860914169</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X43" t="n">
-        <v>468.1263100161517</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>110.9405987984271</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747117</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270189</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162593248</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.94306717106863</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.55404744465334</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>85.30006332127712</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>75.75599214111358</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.6795013432093</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>224.5805635544637</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23190,10 +23190,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>86.05160619575683</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>365.0631782049409</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.6864821997535</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>54.45318227266881</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789882</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>59.59386361701704</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>86.05160619575648</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>42.9371068752867</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>71.43590749695704</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>117.0896147389935</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.09038538154063</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>148.0333797447914</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>58.35886639452588</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>36.75615886540062</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>93.40013623254319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>90.20091702350504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>44.27839330891752</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>130.3055680950803</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024085</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>94.99992104262843</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>140.0899409154932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1617416721366</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>702824.1735731201</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702824.1735731203</v>
+        <v>818599.3268267465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>702824.1735731203</v>
+        <v>818599.3268267466</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818599.3268267465</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818599.3268267463</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>371509.2212626558</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173335</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="G2" t="n">
-        <v>371509.2212626559</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
@@ -26346,7 +26346,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004546</v>
+        <v>263762.8892659103</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704782</v>
+        <v>69864.88484991125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="G4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340949</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364130.1042949818</v>
+        <v>-369171.0325685189</v>
       </c>
       <c r="C6" t="n">
-        <v>225837.7749195625</v>
+        <v>220796.8466460257</v>
       </c>
       <c r="D6" t="n">
-        <v>225837.7749195625</v>
+        <v>220796.8466460256</v>
       </c>
       <c r="E6" t="n">
-        <v>259465.3749195625</v>
+        <v>41878.36828019439</v>
       </c>
       <c r="F6" t="n">
-        <v>259465.3749195626</v>
+        <v>290025.1368990368</v>
       </c>
       <c r="G6" t="n">
-        <v>57246.74636052338</v>
+        <v>65490.42758112358</v>
       </c>
       <c r="H6" t="n">
-        <v>293664.3983609778</v>
+        <v>329253.316847034</v>
       </c>
       <c r="I6" t="n">
-        <v>74695.74850765639</v>
+        <v>329253.3168470341</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141626</v>
+        <v>152830.0976544411</v>
       </c>
       <c r="K6" t="n">
-        <v>330227.9081067558</v>
+        <v>329253.3168470341</v>
       </c>
       <c r="L6" t="n">
-        <v>330227.9081067558</v>
+        <v>329253.316847034</v>
       </c>
       <c r="M6" t="n">
-        <v>330227.9081067555</v>
+        <v>266800.260957381</v>
       </c>
       <c r="N6" t="n">
-        <v>330227.9081067557</v>
+        <v>329253.316847034</v>
       </c>
       <c r="O6" t="n">
-        <v>269918.3209697079</v>
+        <v>259388.4319971228</v>
       </c>
       <c r="P6" t="n">
-        <v>330227.9081067557</v>
+        <v>329253.316847034</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545558</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209767</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282004</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282004</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>168.3154300822058</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.50483023399923</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.67253007865524</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.97888442104295</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.7281013512536</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268333</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067311</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.9096744457924</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.32084226272464</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268333</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122261</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502624</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472377</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>127.2102422761838</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>588.0961736712732</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>544.8360280007823</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424319.970851674</v>
+        <v>1445739.950556945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>1737911.484358931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>4541732.1730751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10852614.83259179</v>
+        <v>9605299.613516435</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>186.3676115384771</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>91.02978856397624</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>171.6328130898288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>316.5792544439608</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.80587249615646</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>250.8264076970015</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>159.4368283879286</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>85.87170836083675</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.86719186732084</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>100.7645774914512</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.74748044681569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>68.25327490405915</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>58.90217727687348</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0430756163831</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X16" t="n">
-        <v>182.7725485137505</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>46.63497540675878</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.74236544294377</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>165.0140383262328</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>166.1148802964582</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>58.64426104072226</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.4007546619418</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.66308659887137</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>31.53167077399007</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>115.5269768002176</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.778491872618</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>75.57809216555839</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.9139073249077</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>15.75208669539952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>162.4410217923904</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.591755944065</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C2" t="n">
-        <v>1937.591755944065</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.591755944065</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4424,28 +4424,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>525.3455871915424</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>945.1497906179575</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2683.203765264529</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2507.0262775787</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2288.391610550762</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2034.629825188854</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.566937845283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1136.252702486534</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2481.073100146768</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2481.073100146768</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2481.073100146768</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2481.073100146768</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2481.073100146768</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>140.682081174745</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1397.061718429189</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>1397.061718429189</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1038.796019822438</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1021.75845227969</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>610.7725474900825</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>193.68476572651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598736</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.098191343887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2900.035304000317</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W11" t="n">
-        <v>2547.266648730202</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.800890469122</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.661558493311</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893251</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1666.986340622547</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1865.643082275211</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2415.079091027933</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240.672641920795</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>240.672641920795</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D13" t="n">
-        <v>240.672641920795</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E13" t="n">
-        <v>198.5034697522943</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="F13" t="n">
-        <v>198.5034697522943</v>
+        <v>122.8856837436565</v>
       </c>
       <c r="G13" t="n">
-        <v>198.5034697522943</v>
+        <v>122.8856837436565</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636425</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>530.0898119577556</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>240.672641920795</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>240.672641920795</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>240.672641920795</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1981.816309027609</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C14" t="n">
-        <v>1612.853792087197</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D14" t="n">
-        <v>1254.588093480447</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>868.7998408822023</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>868.7998408822023</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>451.7120591186297</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>133.4889438911392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403564</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>3484.789894598736</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>3484.789894598736</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>3484.789894598736</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>3132.021239328622</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2758.555481067542</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>2368.41614909173</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>141.599614789977</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560949</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.506504123199</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.712196375981</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2509.148205128703</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.7152795435728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>392.7152795435728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>866.4861918383683</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>866.4861918383683</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>577.334015416048</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>577.334015416048</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W16" t="n">
-        <v>577.334015416048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>392.7152795435728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.7152795435728</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2134.774920425097</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2521.374760489219</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>540.6497974481231</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1181.195146915227</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1854.400839168009</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2013.913151836768</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118775</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="X19" t="n">
-        <v>381.3857973138602</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.5932181703301</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1069.858290060061</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>658.8723852704538</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>241.7846035068813</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>2232.385714698239</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>1842.246382722427</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3090493050183</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1299.854398772122</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1973.060091024904</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2132.572403693664</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>301.835267445098</v>
       </c>
       <c r="C22" t="n">
-        <v>675.007103038344</v>
+        <v>301.835267445098</v>
       </c>
       <c r="D22" t="n">
-        <v>675.007103038344</v>
+        <v>301.835267445098</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>301.835267445098</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>529.8248183431153</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>301.835267445098</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>301.835267445098</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>985.7136853104475</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.4801130615101</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>616.5439301336032</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>466.4272907212675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>318.5141971388744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>171.624249640964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>171.624249640964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>171.624249640964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028583</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1467.066098058923</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1177.937459272481</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>923.2529710665938</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.92115703528</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.1285778917498</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6600,16 +6600,16 @@
         <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6694,16 +6694,16 @@
         <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028583</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,28 +6958,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1430.618046428081</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1430.618046428081</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.618046428081</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.618046428081</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="W37" t="n">
-        <v>1141.200876391121</v>
+        <v>844.0289544965622</v>
       </c>
       <c r="X37" t="n">
-        <v>1141.200876391121</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.200876391121</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>370.8829324483097</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>202.7076107681303</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>616.8574922980929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>466.7408528857571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>466.7408528857571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>319.8509053878468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>151.6755837076674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W43" t="n">
-        <v>785.7936752259998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>785.7936752259998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2449295548433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2449295548433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1282901425076</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1282901425076</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>113.1282901425076</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>113.1282901425076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.8933943850831</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>110.9405987984271</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>15.92129162593248</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>306.0814314576937</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>186.2236012992132</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>236.7224699061587</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>90.29679129775059</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>131.1039623752603</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23190,19 +23190,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>59.5493396620945</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>365.0631782049409</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.4763912259618</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.6864821997535</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>87.91761393773599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.59386361701704</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.19486303967045</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X16" t="n">
-        <v>42.9371068752867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.6059933106542</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.0896147389935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>40.35184357388584</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>148.9260037787574</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>86.77678698220899</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.43122551999551</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>36.75615886540062</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>190.0158902843992</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>26.93116351641916</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3055680950803</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>176.5595511582696</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>44.4782142527701</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>94.99992104262843</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>75.2688311464434</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1617416721366</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>124.0819765442006</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818599.3268267465</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818599.3268267466</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>945598.6813359333</v>
+        <v>818599.3268267465</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359333</v>
+        <v>818599.3268267463</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>371509.2212626557</v>
+      </c>
+      <c r="H2" t="n">
         <v>371509.2212626558</v>
       </c>
-      <c r="F2" t="n">
-        <v>371509.2212626557</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="N2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659103</v>
+        <v>236417.6520004548</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965292</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>60309.58713704787</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="G4" t="n">
         <v>8673.279618076551</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8673.279618076551</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26459,7 +26459,7 @@
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
         <v>69171.54328360136</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>69171.54328360136</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685189</v>
+        <v>-364736.9456695638</v>
       </c>
       <c r="C6" t="n">
-        <v>220796.8466460257</v>
+        <v>225230.9335449804</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460256</v>
+        <v>225230.9335449806</v>
       </c>
       <c r="E6" t="n">
-        <v>41878.36828019439</v>
+        <v>258858.5335449805</v>
       </c>
       <c r="F6" t="n">
-        <v>290025.1368990368</v>
+        <v>258858.5335449805</v>
       </c>
       <c r="G6" t="n">
-        <v>65490.42758112358</v>
+        <v>56882.82021432891</v>
       </c>
       <c r="H6" t="n">
-        <v>329253.316847034</v>
+        <v>293300.4722147838</v>
       </c>
       <c r="I6" t="n">
-        <v>329253.3168470341</v>
+        <v>74598.28938168408</v>
       </c>
       <c r="J6" t="n">
-        <v>152830.0976544411</v>
+        <v>153707.2297881905</v>
       </c>
       <c r="K6" t="n">
-        <v>329253.3168470341</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="L6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="M6" t="n">
-        <v>266800.260957381</v>
+        <v>330130.4489807836</v>
       </c>
       <c r="N6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="O6" t="n">
-        <v>259388.4319971228</v>
+        <v>269820.8618437357</v>
       </c>
       <c r="P6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807836</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>593.4761003380635</v>
       </c>
-      <c r="F3" t="n">
-        <v>593.4761003380636</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
         <v>924.8974390827563</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>924.8974390827563</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>215.7324361209768</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>236.9063051160366</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>250.6101663282006</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>290.3162041708168</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>250.6101663282006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>168.3154300822058</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.50483023399923</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.67253007865524</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047541</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>14.97888442104295</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047541</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067311</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.7281013512536</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472377</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268336</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>125.708794178759</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747238</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>415.8689340105202</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>296.0111038520397</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>588.0961736712732</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
